--- a/Companies/Automobile - 2 & 3 Wheelers/Bajaj Auto Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
+++ b/Companies/Automobile - 2 & 3 Wheelers/Bajaj Auto Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '22</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '22</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '22</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '23</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>7,768.89</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9,911.06</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9,315.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8,631.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>10,048.59</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8,631.55</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9,315.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9,911.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7,768.89</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>10048.59</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>7768.89</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>9135.045999999998</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>236.08</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>291.71</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>273.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>261.18</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>273.17</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>291.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>236.08</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>291.71</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>236.08</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>265.535</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>8,004.97</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10,202.77</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9,315.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8,904.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>10,309.77</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8,904.72</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9,315.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10,202.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8,004.97</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>10309.77</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>8004.97</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>9347.474</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>5,435.38</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6,940.50</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5,764.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5,868.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>6,696.96</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5,868.17</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5,764.96</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6,940.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5,435.38</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>6940.5</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>5435.38</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>6141.194</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>468.39</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>489.55</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>567.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>618.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>595.16</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>618.27</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>567.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>489.55</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>468.39</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>618.27</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>468.39</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>547.8019999999999</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>-126.13</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>244.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-272.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>120.53</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-272.95</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>244.94</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>56.03</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-126.13</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>244.94</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-272.95</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>4.484000000000004</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>379.59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>352.17</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>351.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>362.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>384.16</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>362.02</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>351.12</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>352.17</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>379.59</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>384.16</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>351.12</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>365.812</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>67.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>83.53</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>74.16</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>73.95</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>67.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>67.33</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>83.53</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>73.194</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>-5.05</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-3.73</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-6.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-12.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>-19.74</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-12.45</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-6.59</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-3.73</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-5.05</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>-3.73</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-19.74</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>-9.511999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>555.77</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>609.51</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>616.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>625.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>578.77</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>625.09</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>616.26</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>609.51</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>555.77</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>625.09</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>555.77</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>597.08</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,229.69</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,691.74</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,702.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,642.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,870.40</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,642.41</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,702.86</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,691.74</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,229.69</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1870.4</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1229.69</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1627.42</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>319.32</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>333.15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>269.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>259.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>346.33</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>259.83</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>269.12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>333.15</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>319.32</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>346.33</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>259.83</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>305.55</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,549.01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2,024.89</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,971.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,902.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>2,216.73</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1,902.24</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1,971.98</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2,024.89</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,549.01</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>2216.73</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1549.01</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1932.97</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>12.09</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>15.74</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>10.92</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>15.74</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>10.314</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,544.67</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,013.97</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,963.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,886.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,204.64</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,886.50</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,963.50</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,013.97</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,544.67</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2204.64</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>1544.67</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1922.656</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,544.67</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2,013.97</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,963.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,886.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2,204.64</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,886.50</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,963.50</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2,013.97</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,544.67</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>2204.64</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>1544.67</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1922.656</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>371.37</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>483.97</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>472.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>453.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>539.87</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>453.62</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>472.08</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>483.97</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>371.37</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>539.87</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>371.37</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>464.182</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>1,173.30</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1,530.00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,491.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1,432.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>1,664.77</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1,432.88</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1,491.42</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1,530.00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1,173.30</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>1664.77</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1173.3</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>1458.474</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>1,173.30</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1,530.00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1,491.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1,432.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>1,664.77</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1,432.88</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1,491.42</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1,530.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1,173.30</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>1664.77</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>1173.3</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>1458.474</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>289.37</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>283.65</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>282.96</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>282.96</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>282.96</t>
         </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>283.65</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>289.37</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>289.37</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>282.96</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>284.38</v>
       </c>
     </row>
     <row r="24"/>
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>53.50</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>52.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>58.90</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>50.70</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>52.70</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>53.50</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>40.60</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>51.27999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>53.50</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>52.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>58.90</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>50.70</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>52.70</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>53.50</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>40.60</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>51.27999999999999</v>
       </c>
     </row>
     <row r="28"/>
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>53.50</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>52.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>58.90</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>50.70</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>52.70</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>53.50</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>40.60</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>51.27999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>53.50</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>52.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>58.90</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>50.70</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>52.70</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>53.50</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>40.60</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>51.27999999999999</v>
       </c>
     </row>
     <row r="32"/>
